--- a/数据库逻辑表.xlsx
+++ b/数据库逻辑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\hdu_rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CF601E-88DF-41B9-9FAF-DFACD46833F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4EF7BF-82A5-4397-ACF5-E7989DB0B578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="495" windowWidth="15465" windowHeight="13680" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
+    <workbookView xWindow="120" yWindow="1305" windowWidth="11100" windowHeight="13680" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杭电账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,35 +158,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum
-'admin','user'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unchecked</t>
+  </si>
+  <si>
+    <t>管理员唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登录账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">char </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longtext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义页面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server_infos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_super</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以管理其他用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,16 +245,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,25 +276,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,218 +631,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E69B98-BA1B-475F-B3F9-D2D7614F5DD9}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>128</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>255</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="58.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
+      <c r="E16" s="1">
         <v>128</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>255</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
+    <row r="18" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/数据库逻辑表.xlsx
+++ b/数据库逻辑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\hdu_rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4EF7BF-82A5-4397-ACF5-E7989DB0B578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4D169B-D140-4D25-9B1E-7CC9FB6611AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1305" windowWidth="11100" windowHeight="13680" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="11850" windowHeight="10800" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>class_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E69B98-BA1B-475F-B3F9-D2D7614F5DD9}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -919,19 +931,30 @@
       </c>
     </row>
     <row r="18" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/数据库逻辑表.xlsx
+++ b/数据库逻辑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\hdu_rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4EF7BF-82A5-4397-ACF5-E7989DB0B578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221EAA7A-6BA3-40BF-AD36-59A34991BB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1305" windowWidth="11100" windowHeight="13680" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
+    <workbookView xWindow="-165" yWindow="855" windowWidth="11850" windowHeight="12735" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,15 +631,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E69B98-BA1B-475F-B3F9-D2D7614F5DD9}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
@@ -919,19 +919,30 @@
       </c>
     </row>
     <row r="18" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/数据库逻辑表.xlsx
+++ b/数据库逻辑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\hdu_rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221EAA7A-6BA3-40BF-AD36-59A34991BB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D952E464-5069-400E-B9FC-8386BEF58271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="855" windowWidth="11850" windowHeight="12735" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
+    <workbookView xWindow="0" yWindow="855" windowWidth="11850" windowHeight="12735" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,7 +634,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -777,9 +777,6 @@
       <c r="E7" s="1">
         <v>255</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>

--- a/数据库逻辑表.xlsx
+++ b/数据库逻辑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\hdu_rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D952E464-5069-400E-B9FC-8386BEF58271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47171B3D-791C-48C1-A6F9-0B8562D97E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="11850" windowHeight="12735" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
+    <workbookView xWindow="915" yWindow="1455" windowWidth="11850" windowHeight="12735" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -291,6 +291,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -300,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,6 +340,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,7 +666,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -916,6 +948,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,9 +962,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
@@ -942,9 +975,10 @@
       <c r="H19" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库逻辑表.xlsx
+++ b/数据库逻辑表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\hdu_rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47171B3D-791C-48C1-A6F9-0B8562D97E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403C964A-323C-497A-85D5-B89DD8BC2DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="1455" windowWidth="11850" windowHeight="12735" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
   </bookViews>
@@ -666,7 +666,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>

--- a/数据库逻辑表.xlsx
+++ b/数据库逻辑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\hdu_rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403C964A-323C-497A-85D5-B89DD8BC2DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16201E10-76CF-444C-A901-F3623AE6ED14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1455" windowWidth="11850" windowHeight="12735" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
+    <workbookView xWindow="1095" yWindow="1710" windowWidth="11850" windowHeight="12735" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,7 +666,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -839,9 +839,6 @@
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="10" spans="1:8" ht="58.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>

--- a/数据库逻辑表.xlsx
+++ b/数据库逻辑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\hdu_rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16201E10-76CF-444C-A901-F3623AE6ED14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EFB669-74A6-4E67-BF59-8F2FC47451DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1710" windowWidth="11850" windowHeight="12735" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" xr2:uid="{C50B0786-EFAA-4115-B979-7D362E14A143}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +194,6 @@
   </si>
   <si>
     <t>server_infos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -326,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,9 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E69B98-BA1B-475F-B3F9-D2D7614F5DD9}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -680,7 +673,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,12 +695,9 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -726,8 +716,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
@@ -744,8 +734,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
@@ -762,10 +752,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
@@ -777,8 +767,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -795,8 +785,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -810,8 +800,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:7" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -828,8 +818,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -840,8 +830,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="58.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:7" ht="58.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -855,8 +845,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
@@ -867,8 +857,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -887,8 +877,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
@@ -905,16 +895,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -926,8 +916,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
@@ -944,8 +934,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -958,18 +948,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
